--- a/raw_data/20200818_saline/20200818_Sensor3_Test_62.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_62.xlsx
@@ -1,750 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900915A4-9C4C-4826-BC43-323B1F363C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>55455.513145</v>
+        <v>55455.513144999997</v>
       </c>
       <c r="B2" s="1">
         <v>15.404309</v>
       </c>
       <c r="C2" s="1">
-        <v>1148.230000</v>
+        <v>1148.23</v>
       </c>
       <c r="D2" s="1">
-        <v>-254.207000</v>
+        <v>-254.20699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>55465.864668</v>
+        <v>55465.864668000002</v>
       </c>
       <c r="G2" s="1">
         <v>15.407185</v>
       </c>
       <c r="H2" s="1">
-        <v>1168.400000</v>
+        <v>1168.4000000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-213.023000</v>
+        <v>-213.023</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>55476.629821</v>
+        <v>55476.629821000002</v>
       </c>
       <c r="L2" s="1">
-        <v>15.410175</v>
+        <v>15.410175000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.390000</v>
+        <v>1195.3900000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.572000</v>
+        <v>-148.572</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>55487.148015</v>
+        <v>55487.148014999999</v>
       </c>
       <c r="Q2" s="1">
         <v>15.413097</v>
       </c>
       <c r="R2" s="1">
-        <v>1202.940000</v>
+        <v>1202.94</v>
       </c>
       <c r="S2" s="1">
-        <v>-126.821000</v>
+        <v>-126.821</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>55497.702677</v>
+        <v>55497.702677000001</v>
       </c>
       <c r="V2" s="1">
         <v>15.416029</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.110000</v>
+        <v>1210.1099999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.471000</v>
+        <v>-106.471</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>55508.086133</v>
+        <v>55508.086132999997</v>
       </c>
       <c r="AA2" s="1">
         <v>15.418913</v>
       </c>
       <c r="AB2" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.062400</v>
+        <v>-90.062399999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>55518.671719</v>
+        <v>55518.671718999998</v>
       </c>
       <c r="AF2" s="1">
         <v>15.421853</v>
       </c>
       <c r="AG2" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.947800</v>
+        <v>-85.947800000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>55529.456231</v>
+        <v>55529.456230999996</v>
       </c>
       <c r="AK2" s="1">
         <v>15.424849</v>
       </c>
       <c r="AL2" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.716300</v>
+        <v>-89.716300000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>55539.804761</v>
+        <v>55539.804760999999</v>
       </c>
       <c r="AP2" s="1">
         <v>15.427724</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1237.390000</v>
+        <v>1237.3900000000001</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.037000</v>
+        <v>-102.03700000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>55550.468779</v>
+        <v>55550.468779000003</v>
       </c>
       <c r="AU2" s="1">
         <v>15.430686</v>
       </c>
       <c r="AV2" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.739000</v>
+        <v>-121.739</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>55561.224029</v>
+        <v>55561.224028999997</v>
       </c>
       <c r="AZ2" s="1">
-        <v>15.433673</v>
+        <v>15.433673000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.457000</v>
+        <v>-139.45699999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>55571.825489</v>
+        <v>55571.825489000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>15.436618</v>
+        <v>15.436617999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.160000</v>
+        <v>1297.1600000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.011000</v>
+        <v>-222.011</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>55582.512817</v>
+        <v>55582.512817000003</v>
       </c>
       <c r="BJ2" s="1">
         <v>15.439587</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.910000</v>
+        <v>1367.91</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.670000</v>
+        <v>-358.67</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>55593.543971</v>
+        <v>55593.543970999999</v>
       </c>
       <c r="BO2" s="1">
         <v>15.442651</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.953000</v>
+        <v>-580.95299999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>55603.875478</v>
+        <v>55603.875478000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>15.445521</v>
+        <v>15.445520999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.270000</v>
+        <v>1617.27</v>
       </c>
       <c r="BV2" s="1">
-        <v>-831.868000</v>
+        <v>-831.86800000000005</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>55614.239383</v>
       </c>
       <c r="BY2" s="1">
-        <v>15.448400</v>
+        <v>15.448399999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.940000</v>
+        <v>1770.94</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1103.270000</v>
+        <v>-1103.27</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>55625.196009</v>
+        <v>55625.196008999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>15.451443</v>
+        <v>15.451442999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>2192.070000</v>
+        <v>2192.0700000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1758.560000</v>
+        <v>-1758.56</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>55456.202585</v>
+        <v>55456.202584999999</v>
       </c>
       <c r="B3" s="1">
         <v>15.404501</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.300000</v>
+        <v>1148.3</v>
       </c>
       <c r="D3" s="1">
-        <v>-253.989000</v>
+        <v>-253.989</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>55466.593771</v>
@@ -753,88 +1169,88 @@
         <v>15.407387</v>
       </c>
       <c r="H3" s="1">
-        <v>1168.660000</v>
+        <v>1168.6600000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-213.503000</v>
+        <v>-213.50299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>55476.975038</v>
+        <v>55476.975037999997</v>
       </c>
       <c r="L3" s="1">
         <v>15.410271</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.450000</v>
+        <v>1195.45</v>
       </c>
       <c r="N3" s="1">
-        <v>-148.498000</v>
+        <v>-148.49799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>55487.511582</v>
+        <v>55487.511581999999</v>
       </c>
       <c r="Q3" s="1">
         <v>15.413198</v>
       </c>
       <c r="R3" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="S3" s="1">
-        <v>-126.836000</v>
+        <v>-126.836</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>55498.050076</v>
       </c>
       <c r="V3" s="1">
-        <v>15.416125</v>
+        <v>15.416124999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.100000</v>
+        <v>1210.0999999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.537000</v>
+        <v>-106.53700000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>55508.780004</v>
       </c>
       <c r="AA3" s="1">
-        <v>15.419106</v>
+        <v>15.419105999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1217.500000</v>
+        <v>1217.5</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.100100</v>
+        <v>-90.100099999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>55519.425140</v>
+        <v>55519.425139999999</v>
       </c>
       <c r="AF3" s="1">
         <v>15.422063</v>
       </c>
       <c r="AG3" s="1">
-        <v>1222.210000</v>
+        <v>1222.21</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.966500</v>
+        <v>-85.966499999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>55529.879319</v>
@@ -843,88 +1259,88 @@
         <v>15.424966</v>
       </c>
       <c r="AL3" s="1">
-        <v>1229.340000</v>
+        <v>1229.3399999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.722500</v>
+        <v>-89.722499999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>55540.163897</v>
+        <v>55540.163896999999</v>
       </c>
       <c r="AP3" s="1">
         <v>15.427823</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>55550.834796</v>
+        <v>55550.834796000003</v>
       </c>
       <c r="AU3" s="1">
         <v>15.430787</v>
       </c>
       <c r="AV3" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.744000</v>
+        <v>-121.744</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>55561.595997</v>
+        <v>55561.595996999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>15.433777</v>
+        <v>15.433776999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1256.230000</v>
+        <v>1256.23</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.492000</v>
+        <v>-139.49199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>55572.209888</v>
+        <v>55572.209887999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>15.436725</v>
+        <v>15.436724999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.170000</v>
+        <v>1297.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.990000</v>
+        <v>-221.99</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>55582.922481</v>
+        <v>55582.922481000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>15.439701</v>
+        <v>15.439700999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.752000</v>
+        <v>-358.75200000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>55593.651972</v>
@@ -933,527 +1349,527 @@
         <v>15.442681</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.630000</v>
+        <v>1483.63</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.909000</v>
+        <v>-580.90899999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>55604.023285</v>
+        <v>55604.023285000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>15.445562</v>
+        <v>15.445562000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.260000</v>
+        <v>1617.26</v>
       </c>
       <c r="BV3" s="1">
-        <v>-831.861000</v>
+        <v>-831.86099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>55614.714550</v>
+        <v>55614.714549999997</v>
       </c>
       <c r="BY3" s="1">
         <v>15.448532</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1771.100000</v>
+        <v>1771.1</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1103.110000</v>
+        <v>-1103.1099999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>55625.813557</v>
+        <v>55625.813557000001</v>
       </c>
       <c r="CD3" s="1">
         <v>15.451615</v>
       </c>
       <c r="CE3" s="1">
-        <v>2193.990000</v>
+        <v>2193.9899999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1759.630000</v>
+        <v>-1759.63</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>55456.546809</v>
+        <v>55456.546808999999</v>
       </c>
       <c r="B4" s="1">
         <v>15.404596</v>
       </c>
       <c r="C4" s="1">
-        <v>1148.590000</v>
+        <v>1148.5899999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-254.066000</v>
+        <v>-254.066</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>55466.938530</v>
+        <v>55466.938529999999</v>
       </c>
       <c r="G4" s="1">
-        <v>15.407483</v>
+        <v>15.407482999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.240000</v>
+        <v>1169.24</v>
       </c>
       <c r="I4" s="1">
-        <v>-212.766000</v>
+        <v>-212.76599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>55477.324717</v>
+        <v>55477.324717000003</v>
       </c>
       <c r="L4" s="1">
         <v>15.410368</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.100000</v>
+        <v>1195.0999999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-148.329000</v>
+        <v>-148.32900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>55488.170095</v>
+        <v>55488.170095000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>15.413381</v>
+        <v>15.413380999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1202.970000</v>
+        <v>1202.97</v>
       </c>
       <c r="S4" s="1">
-        <v>-126.939000</v>
+        <v>-126.93899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>55498.699347</v>
+        <v>55498.699347000002</v>
       </c>
       <c r="V4" s="1">
-        <v>15.416305</v>
+        <v>15.416304999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.140000</v>
+        <v>1210.1400000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.547000</v>
+        <v>-106.547</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>55509.163442</v>
+        <v>55509.163441999997</v>
       </c>
       <c r="AA4" s="1">
         <v>15.419212</v>
       </c>
       <c r="AB4" s="1">
-        <v>1217.610000</v>
+        <v>1217.6099999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.103100</v>
+        <v>-90.103099999999998</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>55519.765396</v>
+        <v>55519.765396000003</v>
       </c>
       <c r="AF4" s="1">
         <v>15.422157</v>
       </c>
       <c r="AG4" s="1">
-        <v>1222.160000</v>
+        <v>1222.1600000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.967800</v>
+        <v>-85.967799999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>55530.226518</v>
+        <v>55530.226518000003</v>
       </c>
       <c r="AK4" s="1">
         <v>15.425063</v>
       </c>
       <c r="AL4" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.733400</v>
+        <v>-89.733400000000003</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>55540.527930</v>
+        <v>55540.527929999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>15.427924</v>
+        <v>15.427924000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1237.390000</v>
+        <v>1237.3900000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>55551.198364</v>
+        <v>55551.198364000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>15.430888</v>
+        <v>15.430887999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.751000</v>
+        <v>-121.751</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>55562.015117</v>
+        <v>55562.015117000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>15.433893</v>
+        <v>15.433892999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.458000</v>
+        <v>-139.458</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>55572.814512</v>
+        <v>55572.814511999997</v>
       </c>
       <c r="BE4" s="1">
         <v>15.436893</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.160000</v>
+        <v>1297.1600000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.999000</v>
+        <v>-221.999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>55583.288529</v>
+        <v>55583.288528999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>15.439802</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.900000</v>
+        <v>1367.9</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.753000</v>
+        <v>-358.75299999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>55594.074035</v>
+        <v>55594.074034999998</v>
       </c>
       <c r="BO4" s="1">
         <v>15.442798</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.680000</v>
+        <v>1483.68</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.952000</v>
+        <v>-580.952</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>55604.435496</v>
+        <v>55604.435495999998</v>
       </c>
       <c r="BT4" s="1">
         <v>15.445677</v>
       </c>
       <c r="BU4" s="1">
-        <v>1617.490000</v>
+        <v>1617.49</v>
       </c>
       <c r="BV4" s="1">
-        <v>-831.909000</v>
+        <v>-831.90899999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>55615.174343</v>
+        <v>55615.174342999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>15.448660</v>
+        <v>15.44866</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.890000</v>
+        <v>1770.89</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1103.190000</v>
+        <v>-1103.19</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>55626.661191</v>
+        <v>55626.661190999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>15.451850</v>
+        <v>15.45185</v>
       </c>
       <c r="CE4" s="1">
-        <v>2194.160000</v>
+        <v>2194.16</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1758.870000</v>
+        <v>-1758.87</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>55456.883592</v>
+        <v>55456.883591999998</v>
       </c>
       <c r="B5" s="1">
-        <v>15.404690</v>
+        <v>15.40469</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.480000</v>
+        <v>1148.48</v>
       </c>
       <c r="D5" s="1">
-        <v>-253.981000</v>
+        <v>-253.98099999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>55467.590272</v>
+        <v>55467.590272000001</v>
       </c>
       <c r="G5" s="1">
         <v>15.407664</v>
       </c>
       <c r="H5" s="1">
-        <v>1168.820000</v>
+        <v>1168.82</v>
       </c>
       <c r="I5" s="1">
-        <v>-213.519000</v>
+        <v>-213.51900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>55477.973979</v>
+        <v>55477.973979000002</v>
       </c>
       <c r="L5" s="1">
         <v>15.410548</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.370000</v>
+        <v>1195.3699999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-148.398000</v>
+        <v>-148.398</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>55488.558607</v>
+        <v>55488.558606999999</v>
       </c>
       <c r="Q5" s="1">
         <v>15.413489</v>
       </c>
       <c r="R5" s="1">
-        <v>1202.940000</v>
+        <v>1202.94</v>
       </c>
       <c r="S5" s="1">
-        <v>-126.860000</v>
+        <v>-126.86</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>55499.079284</v>
+        <v>55499.079283999999</v>
       </c>
       <c r="V5" s="1">
         <v>15.416411</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.100000</v>
+        <v>1210.0999999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.542000</v>
+        <v>-106.542</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>55509.512625</v>
+        <v>55509.512625000003</v>
       </c>
       <c r="AA5" s="1">
         <v>15.419309</v>
       </c>
       <c r="AB5" s="1">
-        <v>1217.490000</v>
+        <v>1217.49</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.155800</v>
+        <v>-90.155799999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>55520.106147</v>
+        <v>55520.106146999999</v>
       </c>
       <c r="AF5" s="1">
         <v>15.422252</v>
       </c>
       <c r="AG5" s="1">
-        <v>1222.180000</v>
+        <v>1222.18</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.922900</v>
+        <v>-85.922899999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>55530.572231</v>
+        <v>55530.572230999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>15.425159</v>
+        <v>15.425159000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.701600</v>
+        <v>-89.701599999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>55540.937128</v>
+        <v>55540.937127999998</v>
       </c>
       <c r="AP5" s="1">
-        <v>15.428038</v>
+        <v>15.428038000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1237.390000</v>
+        <v>1237.3900000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.022000</v>
+        <v>-102.02200000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>55551.617482</v>
+        <v>55551.617482000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>15.431005</v>
+        <v>15.431005000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.759000</v>
+        <v>-121.759</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>55562.314700</v>
+        <v>55562.314700000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>15.433976</v>
+        <v>15.433975999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.466000</v>
+        <v>-139.46600000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>55572.941007</v>
+        <v>55572.941007000001</v>
       </c>
       <c r="BE5" s="1">
         <v>15.436928</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.150000</v>
+        <v>1297.1500000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.986000</v>
+        <v>-221.98599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>55583.662511</v>
+        <v>55583.662511000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>15.439906</v>
+        <v>15.439906000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.744000</v>
+        <v>-358.74400000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>55594.469345</v>
+        <v>55594.469344999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>15.442908</v>
+        <v>15.442907999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.949000</v>
+        <v>-580.94899999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>55604.863051</v>
@@ -1462,285 +1878,285 @@
         <v>15.445795</v>
       </c>
       <c r="BU5" s="1">
-        <v>1617.480000</v>
+        <v>1617.48</v>
       </c>
       <c r="BV5" s="1">
-        <v>-831.646000</v>
+        <v>-831.64599999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>55615.628677</v>
+        <v>55615.628677000001</v>
       </c>
       <c r="BY5" s="1">
         <v>15.448786</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.910000</v>
+        <v>1770.91</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1103.250000</v>
+        <v>-1103.25</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>55626.847195</v>
+        <v>55626.847195000002</v>
       </c>
       <c r="CD5" s="1">
         <v>15.451902</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.010000</v>
+        <v>2192.0100000000002</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1758.820000</v>
+        <v>-1758.82</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>55457.549718</v>
+        <v>55457.549718000002</v>
       </c>
       <c r="B6" s="1">
-        <v>15.404875</v>
+        <v>15.404875000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.290000</v>
+        <v>1148.29</v>
       </c>
       <c r="D6" s="1">
-        <v>-254.056000</v>
+        <v>-254.05600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>55467.970665</v>
+        <v>55467.970665000001</v>
       </c>
       <c r="G6" s="1">
-        <v>15.407770</v>
+        <v>15.407769999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1169.230000</v>
+        <v>1169.23</v>
       </c>
       <c r="I6" s="1">
-        <v>-212.766000</v>
+        <v>-212.76599999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>55478.361886</v>
+        <v>55478.361885999999</v>
       </c>
       <c r="L6" s="1">
-        <v>15.410656</v>
+        <v>15.410655999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.490000</v>
+        <v>1195.49</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.422000</v>
+        <v>-148.422</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>55488.907293</v>
+        <v>55488.907292999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>15.413585</v>
+        <v>15.413584999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1202.900000</v>
+        <v>1202.9000000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-126.840000</v>
+        <v>-126.84</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>55499.425487</v>
       </c>
       <c r="V6" s="1">
-        <v>15.416507</v>
+        <v>15.416506999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.220000</v>
+        <v>1210.22</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.502000</v>
+        <v>-106.502</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>55509.861810</v>
+        <v>55509.861810000002</v>
       </c>
       <c r="AA6" s="1">
         <v>15.419406</v>
       </c>
       <c r="AB6" s="1">
-        <v>1217.630000</v>
+        <v>1217.6300000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.002900</v>
+        <v>-90.002899999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>55520.524803</v>
       </c>
       <c r="AF6" s="1">
-        <v>15.422368</v>
+        <v>15.422368000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1222.160000</v>
+        <v>1222.1600000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.936600</v>
+        <v>-85.936599999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>55530.986390</v>
+        <v>55530.986389999998</v>
       </c>
       <c r="AK6" s="1">
         <v>15.425274</v>
       </c>
       <c r="AL6" s="1">
-        <v>1229.320000</v>
+        <v>1229.32</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.709800</v>
+        <v>-89.709800000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>55541.248127</v>
+        <v>55541.248126999999</v>
       </c>
       <c r="AP6" s="1">
         <v>15.428124</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.056000</v>
+        <v>-102.056</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>55551.925001</v>
+        <v>55551.925001000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>15.431090</v>
+        <v>15.431089999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.714000</v>
+        <v>-121.714</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>55562.672315</v>
+        <v>55562.672315000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>15.434076</v>
+        <v>15.434075999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.468000</v>
+        <v>-139.46799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>55573.330845</v>
+        <v>55573.330844999997</v>
       </c>
       <c r="BE6" s="1">
-        <v>15.437036</v>
+        <v>15.437036000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.160000</v>
+        <v>1297.1600000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.004000</v>
+        <v>-222.00399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>55584.036000</v>
+        <v>55584.036</v>
       </c>
       <c r="BJ6" s="1">
-        <v>15.440010</v>
+        <v>15.440009999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.724000</v>
+        <v>-358.72399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>55594.889983</v>
+        <v>55594.889983000001</v>
       </c>
       <c r="BO6" s="1">
         <v>15.443025</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.680000</v>
+        <v>1483.68</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.954000</v>
+        <v>-580.95399999999995</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>55605.274691</v>
+        <v>55605.274690999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>15.445910</v>
+        <v>15.44591</v>
       </c>
       <c r="BU6" s="1">
-        <v>1617.520000</v>
+        <v>1617.52</v>
       </c>
       <c r="BV6" s="1">
-        <v>-831.663000</v>
+        <v>-831.66300000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>55616.077093</v>
       </c>
       <c r="BY6" s="1">
-        <v>15.448910</v>
+        <v>15.44891</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1103.050000</v>
+        <v>-1103.05</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>55627.362577</v>
@@ -1749,16 +2165,16 @@
         <v>15.452045</v>
       </c>
       <c r="CE6" s="1">
-        <v>2192.040000</v>
+        <v>2192.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1758.220000</v>
+        <v>-1758.22</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>55457.910806</v>
       </c>
@@ -1766,285 +2182,285 @@
         <v>15.404975</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.690000</v>
+        <v>1148.69</v>
       </c>
       <c r="D7" s="1">
-        <v>-253.814000</v>
+        <v>-253.81399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>55468.314888</v>
+        <v>55468.314888000001</v>
       </c>
       <c r="G7" s="1">
-        <v>15.407865</v>
+        <v>15.407864999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1168.120000</v>
+        <v>1168.1199999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.059000</v>
+        <v>-213.059</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>55478.705083</v>
+        <v>55478.705083000001</v>
       </c>
       <c r="L7" s="1">
-        <v>15.410751</v>
+        <v>15.410750999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.390000</v>
+        <v>1195.3900000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-148.384000</v>
+        <v>-148.38399999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>55489.253278</v>
+        <v>55489.253277999996</v>
       </c>
       <c r="Q7" s="1">
         <v>15.413681</v>
       </c>
       <c r="R7" s="1">
-        <v>1202.940000</v>
+        <v>1202.94</v>
       </c>
       <c r="S7" s="1">
-        <v>-126.834000</v>
+        <v>-126.834</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>55499.768200</v>
+        <v>55499.768199999999</v>
       </c>
       <c r="V7" s="1">
-        <v>15.416602</v>
+        <v>15.416601999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.170000</v>
+        <v>1210.17</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.415000</v>
+        <v>-106.41500000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>55510.282384</v>
+        <v>55510.282383999998</v>
       </c>
       <c r="AA7" s="1">
         <v>15.419523</v>
       </c>
       <c r="AB7" s="1">
-        <v>1217.610000</v>
+        <v>1217.6099999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.155900</v>
+        <v>-90.155900000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>55520.804516</v>
+        <v>55520.804515999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>15.422446</v>
+        <v>15.422446000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1222.180000</v>
+        <v>1222.18</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.943900</v>
+        <v>-85.943899999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>55531.285973</v>
+        <v>55531.285972999998</v>
       </c>
       <c r="AK7" s="1">
         <v>15.425357</v>
       </c>
       <c r="AL7" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.729800</v>
+        <v>-89.729799999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>55541.606231</v>
+        <v>55541.606230999998</v>
       </c>
       <c r="AP7" s="1">
         <v>15.428224</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.048000</v>
+        <v>-102.048</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>55552.290089</v>
+        <v>55552.290089000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>15.431192</v>
+        <v>15.431191999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.729000</v>
+        <v>-121.729</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>55563.030150</v>
+        <v>55563.030149999999</v>
       </c>
       <c r="AZ7" s="1">
         <v>15.434175</v>
       </c>
       <c r="BA7" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.469000</v>
+        <v>-139.46899999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>55574.052557</v>
+        <v>55574.052557000003</v>
       </c>
       <c r="BE7" s="1">
         <v>15.437237</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.002000</v>
+        <v>-222.00200000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>55584.811246</v>
+        <v>55584.811245999997</v>
       </c>
       <c r="BJ7" s="1">
         <v>15.440225</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.765000</v>
+        <v>-358.76499999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>55595.285761</v>
+        <v>55595.285760999999</v>
       </c>
       <c r="BO7" s="1">
         <v>15.443135</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.630000</v>
+        <v>1483.63</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.918000</v>
+        <v>-580.91800000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>55605.691362</v>
+        <v>55605.691361999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>15.446025</v>
+        <v>15.446025000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1617.630000</v>
+        <v>1617.63</v>
       </c>
       <c r="BV7" s="1">
-        <v>-831.551000</v>
+        <v>-831.55100000000004</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>55616.498662</v>
+        <v>55616.498661999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>15.449027</v>
+        <v>15.449026999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.780000</v>
+        <v>1770.78</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1103.190000</v>
+        <v>-1103.19</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>55628.225573</v>
+        <v>55628.225573000003</v>
       </c>
       <c r="CD7" s="1">
         <v>15.452285</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.080000</v>
+        <v>2194.08</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1759.080000</v>
+        <v>-1759.08</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>55458.249609</v>
+        <v>55458.249608999999</v>
       </c>
       <c r="B8" s="1">
-        <v>15.405069</v>
+        <v>15.405068999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1148.060000</v>
+        <v>1148.06</v>
       </c>
       <c r="D8" s="1">
-        <v>-253.939000</v>
+        <v>-253.93899999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>55468.659607</v>
+        <v>55468.659607000001</v>
       </c>
       <c r="G8" s="1">
         <v>15.407961</v>
       </c>
       <c r="H8" s="1">
-        <v>1168.790000</v>
+        <v>1168.79</v>
       </c>
       <c r="I8" s="1">
-        <v>-212.583000</v>
+        <v>-212.583</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>55479.050829</v>
@@ -2053,602 +2469,602 @@
         <v>15.410847</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.360000</v>
+        <v>1195.3599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-148.437000</v>
+        <v>-148.43700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>55489.674634</v>
+        <v>55489.674634000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>15.413799</v>
+        <v>15.413798999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1202.980000</v>
+        <v>1202.98</v>
       </c>
       <c r="S8" s="1">
-        <v>-126.820000</v>
+        <v>-126.82</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>55500.203679</v>
+        <v>55500.203678999998</v>
       </c>
       <c r="V8" s="1">
-        <v>15.416723</v>
+        <v>15.416722999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.599000</v>
+        <v>-106.599</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>55510.575520</v>
+        <v>55510.575519999999</v>
       </c>
       <c r="AA8" s="1">
         <v>15.419604</v>
       </c>
       <c r="AB8" s="1">
-        <v>1217.570000</v>
+        <v>1217.57</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.009000</v>
+        <v>-90.009</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>55521.148740</v>
+        <v>55521.148739999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>15.422541</v>
+        <v>15.422541000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1222.140000</v>
+        <v>1222.1400000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.960000</v>
+        <v>-85.96</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>55531.631189</v>
       </c>
       <c r="AK8" s="1">
-        <v>15.425453</v>
+        <v>15.425452999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>1229.300000</v>
+        <v>1229.3</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.723100</v>
+        <v>-89.723100000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>55541.966362</v>
+        <v>55541.966361999999</v>
       </c>
       <c r="AP8" s="1">
         <v>15.428324</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.047000</v>
+        <v>-102.047</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>55552.657096</v>
+        <v>55552.657096000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>15.431294</v>
+        <v>15.431293999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.765000</v>
+        <v>-121.765</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>55563.756570</v>
+        <v>55563.756569999998</v>
       </c>
       <c r="AZ8" s="1">
         <v>15.434377</v>
       </c>
       <c r="BA8" s="1">
-        <v>1256.180000</v>
+        <v>1256.18</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.475000</v>
+        <v>-139.47499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>55574.412125</v>
+        <v>55574.412125000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>15.437337</v>
+        <v>15.437336999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.160000</v>
+        <v>1297.1600000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.001000</v>
+        <v>-222.001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>55585.184269</v>
+        <v>55585.184268999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>15.440329</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.718000</v>
+        <v>-358.71800000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>55595.709841</v>
+        <v>55595.709841000004</v>
       </c>
       <c r="BO8" s="1">
         <v>15.443253</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.640000</v>
+        <v>1483.64</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.934000</v>
+        <v>-580.93399999999997</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>55606.127810</v>
+        <v>55606.127809999998</v>
       </c>
       <c r="BT8" s="1">
         <v>15.446147</v>
       </c>
       <c r="BU8" s="1">
-        <v>1617.620000</v>
+        <v>1617.62</v>
       </c>
       <c r="BV8" s="1">
-        <v>-831.434000</v>
+        <v>-831.43399999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>55617.226324</v>
+        <v>55617.226324000003</v>
       </c>
       <c r="BY8" s="1">
-        <v>15.449230</v>
+        <v>15.44923</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.950000</v>
+        <v>1770.95</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1103.210000</v>
+        <v>-1103.21</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>55628.446293</v>
+        <v>55628.446293000001</v>
       </c>
       <c r="CD8" s="1">
         <v>15.452346</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.720000</v>
+        <v>2191.7199999999998</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1758.550000</v>
+        <v>-1758.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>55458.594327</v>
+        <v>55458.594326999999</v>
       </c>
       <c r="B9" s="1">
         <v>15.405165</v>
       </c>
       <c r="C9" s="1">
-        <v>1148.450000</v>
+        <v>1148.45</v>
       </c>
       <c r="D9" s="1">
-        <v>-254.033000</v>
+        <v>-254.03299999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>55469.084223</v>
+        <v>55469.084222999998</v>
       </c>
       <c r="G9" s="1">
-        <v>15.408079</v>
+        <v>15.408079000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>1168.660000</v>
+        <v>1168.6600000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.320000</v>
+        <v>-213.32</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>55479.478345</v>
+        <v>55479.478345000003</v>
       </c>
       <c r="L9" s="1">
         <v>15.410966</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.290000</v>
+        <v>1195.29</v>
       </c>
       <c r="N9" s="1">
-        <v>-148.541000</v>
+        <v>-148.541</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>55489.953358</v>
+        <v>55489.953357999999</v>
       </c>
       <c r="Q9" s="1">
         <v>15.413876</v>
       </c>
       <c r="R9" s="1">
-        <v>1202.990000</v>
+        <v>1202.99</v>
       </c>
       <c r="S9" s="1">
-        <v>-126.882000</v>
+        <v>-126.88200000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>55500.460110</v>
+        <v>55500.46011</v>
       </c>
       <c r="V9" s="1">
-        <v>15.416794</v>
+        <v>15.416793999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.230000</v>
+        <v>1210.23</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.452000</v>
+        <v>-106.452</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>55510.922256</v>
+        <v>55510.922255999998</v>
       </c>
       <c r="AA9" s="1">
         <v>15.419701</v>
       </c>
       <c r="AB9" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.063500</v>
+        <v>-90.063500000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>55521.491970</v>
+        <v>55521.491970000003</v>
       </c>
       <c r="AF9" s="1">
         <v>15.422637</v>
       </c>
       <c r="AG9" s="1">
-        <v>1222.210000</v>
+        <v>1222.21</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.962900</v>
+        <v>-85.962900000000005</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>55531.981860</v>
+        <v>55531.98186</v>
       </c>
       <c r="AK9" s="1">
         <v>15.425551</v>
       </c>
       <c r="AL9" s="1">
-        <v>1229.320000</v>
+        <v>1229.32</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.706800</v>
+        <v>-89.706800000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>55542.689495</v>
+        <v>55542.689494999999</v>
       </c>
       <c r="AP9" s="1">
         <v>15.428525</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.046000</v>
+        <v>-102.04600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>55553.387208</v>
       </c>
       <c r="AU9" s="1">
-        <v>15.431496</v>
+        <v>15.431495999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1247.540000</v>
+        <v>1247.54</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.782000</v>
+        <v>-121.782</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>55564.131050</v>
+        <v>55564.131050000004</v>
       </c>
       <c r="AZ9" s="1">
         <v>15.434481</v>
       </c>
       <c r="BA9" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.492000</v>
+        <v>-139.49199999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>55574.772251</v>
+        <v>55574.772251000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>15.437437</v>
+        <v>15.437436999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.200000</v>
+        <v>1297.2</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.025000</v>
+        <v>-222.02500000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>55585.554750</v>
+        <v>55585.554750000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>15.440432</v>
+        <v>15.440431999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.716000</v>
+        <v>-358.71600000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>55596.413199</v>
+        <v>55596.413199000002</v>
       </c>
       <c r="BO9" s="1">
         <v>15.443448</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.690000</v>
+        <v>1483.69</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.937000</v>
+        <v>-580.93700000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>55606.867345</v>
+        <v>55606.867344999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>15.446352</v>
+        <v>15.446351999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1617.490000</v>
+        <v>1617.49</v>
       </c>
       <c r="BV9" s="1">
-        <v>-831.363000</v>
+        <v>-831.36300000000006</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>55617.345827</v>
+        <v>55617.345826999997</v>
       </c>
       <c r="BY9" s="1">
         <v>15.449263</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.970000</v>
+        <v>1770.97</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1103.060000</v>
+        <v>-1103.06</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>55628.961173</v>
+        <v>55628.961173000003</v>
       </c>
       <c r="CD9" s="1">
         <v>15.452489</v>
       </c>
       <c r="CE9" s="1">
-        <v>2192.280000</v>
+        <v>2192.2800000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1761.010000</v>
+        <v>-1761.01</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>55459.030276</v>
+        <v>55459.030275999998</v>
       </c>
       <c r="B10" s="1">
         <v>15.405286</v>
       </c>
       <c r="C10" s="1">
-        <v>1148.280000</v>
+        <v>1148.28</v>
       </c>
       <c r="D10" s="1">
-        <v>-253.932000</v>
+        <v>-253.93199999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>55469.348055</v>
+        <v>55469.348055000002</v>
       </c>
       <c r="G10" s="1">
-        <v>15.408152</v>
+        <v>15.408151999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1168.270000</v>
+        <v>1168.27</v>
       </c>
       <c r="I10" s="1">
-        <v>-212.158000</v>
+        <v>-212.15799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>55479.757098</v>
+        <v>55479.757098000002</v>
       </c>
       <c r="L10" s="1">
         <v>15.411044</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.510000</v>
+        <v>1195.51</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.382000</v>
+        <v>-148.38200000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>55490.301052</v>
+        <v>55490.301052000003</v>
       </c>
       <c r="Q10" s="1">
         <v>15.413973</v>
       </c>
       <c r="R10" s="1">
-        <v>1203.010000</v>
+        <v>1203.01</v>
       </c>
       <c r="S10" s="1">
-        <v>-126.894000</v>
+        <v>-126.89400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>55500.804333</v>
       </c>
       <c r="V10" s="1">
-        <v>15.416890</v>
+        <v>15.41689</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.340000</v>
+        <v>1210.3399999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.449000</v>
+        <v>-106.449</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>55511.270913</v>
       </c>
       <c r="AA10" s="1">
-        <v>15.419797</v>
+        <v>15.419797000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.017300</v>
+        <v>-90.017300000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>55522.179425</v>
+        <v>55522.179425000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>15.422828</v>
+        <v>15.422828000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1222.170000</v>
+        <v>1222.17</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.912300</v>
+        <v>-85.912300000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>55532.677774</v>
+        <v>55532.677774000003</v>
       </c>
       <c r="AK10" s="1">
         <v>15.425744</v>
       </c>
       <c r="AL10" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.730900</v>
+        <v>-89.730900000000005</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>55543.048637</v>
@@ -2657,210 +3073,210 @@
         <v>15.428625</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.047000</v>
+        <v>-102.047</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>55553.772645</v>
+        <v>55553.772644999997</v>
       </c>
       <c r="AU10" s="1">
         <v>15.431604</v>
       </c>
       <c r="AV10" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.740000</v>
+        <v>-121.74</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>55564.508537</v>
+        <v>55564.508537000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>15.434586</v>
+        <v>15.434585999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.471000</v>
+        <v>-139.471</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>55575.445788</v>
+        <v>55575.445787999997</v>
       </c>
       <c r="BE10" s="1">
         <v>15.437624</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.160000</v>
+        <v>1297.1600000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.003000</v>
+        <v>-222.00299999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>55586.270476</v>
+        <v>55586.270475999998</v>
       </c>
       <c r="BJ10" s="1">
         <v>15.440631</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.930000</v>
+        <v>1367.93</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.794000</v>
+        <v>-358.79399999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>55596.525760</v>
+        <v>55596.525759999997</v>
       </c>
       <c r="BO10" s="1">
         <v>15.443479</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.955000</v>
+        <v>-580.95500000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>55607.001265</v>
+        <v>55607.001264999999</v>
       </c>
       <c r="BT10" s="1">
         <v>15.446389</v>
       </c>
       <c r="BU10" s="1">
-        <v>1617.580000</v>
+        <v>1617.58</v>
       </c>
       <c r="BV10" s="1">
-        <v>-831.262000</v>
+        <v>-831.26199999999994</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>55617.795700</v>
+        <v>55617.795700000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>15.449388</v>
+        <v>15.449388000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1771.030000</v>
+        <v>1771.03</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1103.220000</v>
+        <v>-1103.22</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>55629.481444</v>
+        <v>55629.481443999997</v>
       </c>
       <c r="CD10" s="1">
         <v>15.452634</v>
       </c>
       <c r="CE10" s="1">
-        <v>2193.950000</v>
+        <v>2193.9499999999998</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1759.950000</v>
+        <v>-1759.95</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>55459.285748</v>
+        <v>55459.285748000002</v>
       </c>
       <c r="B11" s="1">
         <v>15.405357</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.220000</v>
+        <v>1148.22</v>
       </c>
       <c r="D11" s="1">
-        <v>-253.855000</v>
+        <v>-253.85499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>55469.694263</v>
+        <v>55469.694262999998</v>
       </c>
       <c r="G11" s="1">
         <v>15.408248</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.060000</v>
+        <v>1169.06</v>
       </c>
       <c r="I11" s="1">
-        <v>-212.991000</v>
+        <v>-212.99100000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>55480.103306</v>
+        <v>55480.103305999997</v>
       </c>
       <c r="L11" s="1">
-        <v>15.411140</v>
+        <v>15.41114</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.180000</v>
+        <v>1195.18</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.509000</v>
+        <v>-148.50899999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>55490.650266</v>
+        <v>55490.650265999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>15.414070</v>
+        <v>15.414070000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1202.890000</v>
+        <v>1202.8900000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-126.923000</v>
+        <v>-126.923</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>55501.147601</v>
+        <v>55501.147600999997</v>
       </c>
       <c r="V11" s="1">
         <v>15.416985</v>
       </c>
       <c r="W11" s="1">
-        <v>1209.930000</v>
+        <v>1209.93</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.702000</v>
+        <v>-106.702</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>55511.969309</v>
@@ -2869,420 +3285,420 @@
         <v>15.419991</v>
       </c>
       <c r="AB11" s="1">
-        <v>1217.600000</v>
+        <v>1217.5999999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.035900</v>
+        <v>-90.035899999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>55522.522193</v>
+        <v>55522.522192999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>15.422923</v>
+        <v>15.422923000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>1222.180000</v>
+        <v>1222.18</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.973800</v>
+        <v>-85.973799999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>55533.023987</v>
       </c>
       <c r="AK11" s="1">
-        <v>15.425840</v>
+        <v>15.425840000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1229.310000</v>
+        <v>1229.31</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.726900</v>
+        <v>-89.726900000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>55543.411204</v>
+        <v>55543.411204000004</v>
       </c>
       <c r="AP11" s="1">
         <v>15.428725</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1237.390000</v>
+        <v>1237.3900000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.045000</v>
+        <v>-102.045</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>55554.136209</v>
+        <v>55554.136208999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>15.431705</v>
+        <v>15.431704999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.753000</v>
+        <v>-121.753</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>55565.178634</v>
+        <v>55565.178634000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>15.434772</v>
+        <v>15.434772000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1256.190000</v>
+        <v>1256.19</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.466000</v>
+        <v>-139.46600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>55575.881770</v>
+        <v>55575.88177</v>
       </c>
       <c r="BE11" s="1">
         <v>15.437745</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.004000</v>
+        <v>-222.00399999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>55586.715425</v>
+        <v>55586.715425000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>15.440754</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.920000</v>
+        <v>1367.92</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.731000</v>
+        <v>-358.73099999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>55596.946367</v>
+        <v>55596.946366999997</v>
       </c>
       <c r="BO11" s="1">
-        <v>15.443596</v>
+        <v>15.443595999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.680000</v>
+        <v>1483.68</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.927000</v>
+        <v>-580.92700000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>55607.412964</v>
+        <v>55607.412964000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>15.446504</v>
+        <v>15.446503999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1617.470000</v>
+        <v>1617.47</v>
       </c>
       <c r="BV11" s="1">
-        <v>-831.202000</v>
+        <v>-831.202</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>55618.226258</v>
+        <v>55618.226258000002</v>
       </c>
       <c r="BY11" s="1">
-        <v>15.449507</v>
+        <v>15.449507000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1771.000000</v>
+        <v>1771</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1103.070000</v>
+        <v>-1103.07</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>55630.000756</v>
+        <v>55630.000756000001</v>
       </c>
       <c r="CD11" s="1">
         <v>15.452778</v>
       </c>
       <c r="CE11" s="1">
-        <v>2193.940000</v>
+        <v>2193.94</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1761.950000</v>
+        <v>-1761.95</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>55459.628452</v>
+        <v>55459.628451999997</v>
       </c>
       <c r="B12" s="1">
         <v>15.405452</v>
       </c>
       <c r="C12" s="1">
-        <v>1148.230000</v>
+        <v>1148.23</v>
       </c>
       <c r="D12" s="1">
-        <v>-253.728000</v>
+        <v>-253.72800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>55470.038486</v>
+        <v>55470.038485999998</v>
       </c>
       <c r="G12" s="1">
         <v>15.408344</v>
       </c>
       <c r="H12" s="1">
-        <v>1168.960000</v>
+        <v>1168.96</v>
       </c>
       <c r="I12" s="1">
-        <v>-212.892000</v>
+        <v>-212.892</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>55480.450536</v>
+        <v>55480.450535999997</v>
       </c>
       <c r="L12" s="1">
-        <v>15.411236</v>
+        <v>15.411236000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.360000</v>
+        <v>1195.3599999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.346000</v>
+        <v>-148.346</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>55491.344634</v>
+        <v>55491.344634000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>15.414262</v>
+        <v>15.414262000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>1202.930000</v>
+        <v>1202.93</v>
       </c>
       <c r="S12" s="1">
-        <v>-126.828000</v>
+        <v>-126.828</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>55501.950128</v>
+        <v>55501.950127999997</v>
       </c>
       <c r="V12" s="1">
         <v>15.417208</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.200000</v>
+        <v>1210.2</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.547000</v>
+        <v>-106.547</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>55512.316974</v>
+        <v>55512.316974000001</v>
       </c>
       <c r="AA12" s="1">
         <v>15.420088</v>
       </c>
       <c r="AB12" s="1">
-        <v>1217.530000</v>
+        <v>1217.53</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.096800</v>
+        <v>-90.096800000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>55522.865926</v>
+        <v>55522.865925999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>15.423018</v>
+        <v>15.423018000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1222.240000</v>
+        <v>1222.24</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.956400</v>
+        <v>-85.956400000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>55533.375124</v>
+        <v>55533.375123999998</v>
       </c>
       <c r="AK12" s="1">
         <v>15.425938</v>
       </c>
       <c r="AL12" s="1">
-        <v>1229.280000</v>
+        <v>1229.28</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.699500</v>
+        <v>-89.6995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>55544.078328</v>
+        <v>55544.078328000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>15.428911</v>
+        <v>15.428910999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.040000</v>
+        <v>-102.04</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>55554.803286</v>
+        <v>55554.803286000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>15.431890</v>
+        <v>15.431889999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.749000</v>
+        <v>-121.749</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>55565.594247</v>
+        <v>55565.594247000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>15.434887</v>
       </c>
       <c r="BA12" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.491000</v>
+        <v>-139.49100000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>55576.246329</v>
+        <v>55576.246329000001</v>
       </c>
       <c r="BE12" s="1">
         <v>15.437846</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.013000</v>
+        <v>-222.01300000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>55587.114676</v>
+        <v>55587.114675999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>15.440865</v>
+        <v>15.440865000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.910000</v>
+        <v>1367.91</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.749000</v>
+        <v>-358.74900000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>55597.344689</v>
+        <v>55597.344688999998</v>
       </c>
       <c r="BO12" s="1">
         <v>15.443707</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.630000</v>
+        <v>1483.63</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.937000</v>
+        <v>-580.93700000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>55607.842976</v>
       </c>
       <c r="BT12" s="1">
-        <v>15.446623</v>
+        <v>15.446623000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1617.400000</v>
+        <v>1617.4</v>
       </c>
       <c r="BV12" s="1">
-        <v>-831.131000</v>
+        <v>-831.13099999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>55618.648853</v>
+        <v>55618.648852999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>15.449625</v>
+        <v>15.449624999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.910000</v>
+        <v>1770.91</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1103.340000</v>
+        <v>-1103.3399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>55630.549863</v>
@@ -3291,180 +3707,180 @@
         <v>15.452931</v>
       </c>
       <c r="CE12" s="1">
-        <v>2192.410000</v>
+        <v>2192.41</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1771.290000</v>
+        <v>-1771.29</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>55459.970692</v>
+        <v>55459.970692000003</v>
       </c>
       <c r="B13" s="1">
         <v>15.405547</v>
       </c>
       <c r="C13" s="1">
-        <v>1148.440000</v>
+        <v>1148.44</v>
       </c>
       <c r="D13" s="1">
-        <v>-253.737000</v>
+        <v>-253.73699999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>55470.732390</v>
+        <v>55470.732389999997</v>
       </c>
       <c r="G13" s="1">
-        <v>15.408537</v>
+        <v>15.408537000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1168.750000</v>
+        <v>1168.75</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.548000</v>
+        <v>-213.548</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>55481.143911</v>
+        <v>55481.143910999999</v>
       </c>
       <c r="L13" s="1">
         <v>15.411429</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.490000</v>
+        <v>1195.49</v>
       </c>
       <c r="N13" s="1">
-        <v>-148.411000</v>
+        <v>-148.411</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>55491.695306</v>
+        <v>55491.695306000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>15.414360</v>
+        <v>15.41436</v>
       </c>
       <c r="R13" s="1">
-        <v>1202.950000</v>
+        <v>1202.95</v>
       </c>
       <c r="S13" s="1">
-        <v>-126.801000</v>
+        <v>-126.801</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>55502.177259</v>
+        <v>55502.177258999996</v>
       </c>
       <c r="V13" s="1">
         <v>15.417271</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.260000</v>
+        <v>1210.26</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.382000</v>
+        <v>-106.38200000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>55512.663678</v>
+        <v>55512.663677999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>15.420184</v>
+        <v>15.420184000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1217.610000</v>
+        <v>1217.6099999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.014500</v>
+        <v>-90.014499999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>55523.522592</v>
+        <v>55523.522592000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>15.423201</v>
+        <v>15.423201000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1222.210000</v>
+        <v>1222.21</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.937000</v>
+        <v>-85.936999999999998</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>55534.031835</v>
+        <v>55534.031835000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>15.426120</v>
+        <v>15.426119999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1229.320000</v>
+        <v>1229.32</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.723400</v>
+        <v>-89.723399999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>55544.518775</v>
+        <v>55544.518774999997</v>
       </c>
       <c r="AP13" s="1">
         <v>15.429033</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1237.410000</v>
+        <v>1237.4100000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.051000</v>
+        <v>-102.051</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>55555.277957</v>
+        <v>55555.277956999998</v>
       </c>
       <c r="AU13" s="1">
         <v>15.432022</v>
       </c>
       <c r="AV13" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.740000</v>
+        <v>-121.74</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>55565.969255</v>
+        <v>55565.969255000004</v>
       </c>
       <c r="AZ13" s="1">
         <v>15.434991</v>
       </c>
       <c r="BA13" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.487000</v>
+        <v>-139.48699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>55576.605957</v>
@@ -3473,452 +3889,452 @@
         <v>15.437946</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.160000</v>
+        <v>1297.1600000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.030000</v>
+        <v>-222.03</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>55587.490662</v>
+        <v>55587.490661999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>15.440970</v>
+        <v>15.44097</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.808000</v>
+        <v>-358.80799999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>55597.767741</v>
+        <v>55597.767741000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>15.443824</v>
+        <v>15.443823999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.956000</v>
+        <v>-580.95600000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>55608.328104</v>
       </c>
       <c r="BT13" s="1">
-        <v>15.446758</v>
+        <v>15.446758000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.490000</v>
+        <v>1617.49</v>
       </c>
       <c r="BV13" s="1">
-        <v>-830.958000</v>
+        <v>-830.95799999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>55619.069456</v>
+        <v>55619.069455999997</v>
       </c>
       <c r="BY13" s="1">
-        <v>15.449742</v>
+        <v>15.449742000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.070000</v>
+        <v>1771.07</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1103.260000</v>
+        <v>-1103.26</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>55631.082067</v>
+        <v>55631.082067000003</v>
       </c>
       <c r="CD13" s="1">
         <v>15.453078</v>
       </c>
       <c r="CE13" s="1">
-        <v>2193.380000</v>
+        <v>2193.38</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1778.310000</v>
+        <v>-1778.31</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>55460.649714</v>
+        <v>55460.649713999999</v>
       </c>
       <c r="B14" s="1">
-        <v>15.405736</v>
+        <v>15.405735999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1148.210000</v>
+        <v>1148.21</v>
       </c>
       <c r="D14" s="1">
-        <v>-254.094000</v>
+        <v>-254.09399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>55471.076643</v>
       </c>
       <c r="G14" s="1">
-        <v>15.408632</v>
+        <v>15.408632000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>1168.750000</v>
+        <v>1168.75</v>
       </c>
       <c r="I14" s="1">
-        <v>-212.855000</v>
+        <v>-212.85499999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>55481.490154</v>
+        <v>55481.490153999999</v>
       </c>
       <c r="L14" s="1">
-        <v>15.411525</v>
+        <v>15.411524999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.270000</v>
+        <v>1195.27</v>
       </c>
       <c r="N14" s="1">
-        <v>-148.104000</v>
+        <v>-148.10400000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>55492.043497</v>
+        <v>55492.043496999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>15.414457</v>
+        <v>15.414457000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1203.060000</v>
+        <v>1203.06</v>
       </c>
       <c r="S14" s="1">
-        <v>-126.823000</v>
+        <v>-126.82299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>55502.818092</v>
+        <v>55502.818092000001</v>
       </c>
       <c r="V14" s="1">
         <v>15.417449</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.070000</v>
+        <v>1210.07</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.451000</v>
+        <v>-106.45099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>55513.315927</v>
+        <v>55513.315927000003</v>
       </c>
       <c r="AA14" s="1">
         <v>15.420366</v>
       </c>
       <c r="AB14" s="1">
-        <v>1217.480000</v>
+        <v>1217.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.083800</v>
+        <v>-90.083799999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>55523.896112</v>
+        <v>55523.896112000002</v>
       </c>
       <c r="AF14" s="1">
         <v>15.423304</v>
       </c>
       <c r="AG14" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.936700</v>
+        <v>-85.936700000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>55534.421216</v>
+        <v>55534.421216000002</v>
       </c>
       <c r="AK14" s="1">
         <v>15.426228</v>
       </c>
       <c r="AL14" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.767900</v>
+        <v>-89.767899999999997</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>55544.878835</v>
+        <v>55544.878835000003</v>
       </c>
       <c r="AP14" s="1">
         <v>15.429133</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1237.390000</v>
+        <v>1237.3900000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.073000</v>
+        <v>-102.07299999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>55555.630118</v>
+        <v>55555.630118000001</v>
       </c>
       <c r="AU14" s="1">
         <v>15.432119</v>
       </c>
       <c r="AV14" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.747000</v>
+        <v>-121.747</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>55566.348662</v>
+        <v>55566.348661999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>15.435097</v>
+        <v>15.435097000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1256.220000</v>
+        <v>1256.22</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.482000</v>
+        <v>-139.482</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>55577.029512</v>
+        <v>55577.029512000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>15.438064</v>
+        <v>15.438064000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.190000</v>
+        <v>1297.19</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.981000</v>
+        <v>-221.98099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>55587.916698</v>
+        <v>55587.916698000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>15.441088</v>
+        <v>15.441088000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.741000</v>
+        <v>-358.74099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>55598.164044</v>
+        <v>55598.164043999997</v>
       </c>
       <c r="BO14" s="1">
         <v>15.443934</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.660000</v>
+        <v>1483.66</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.994000</v>
+        <v>-580.99400000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>55608.674270</v>
+        <v>55608.674270000003</v>
       </c>
       <c r="BT14" s="1">
         <v>15.446854</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.390000</v>
+        <v>1617.39</v>
       </c>
       <c r="BV14" s="1">
-        <v>-831.027000</v>
+        <v>-831.02700000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>55619.494002</v>
+        <v>55619.494001999999</v>
       </c>
       <c r="BY14" s="1">
         <v>15.449859</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.900000</v>
+        <v>1770.9</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1103.230000</v>
+        <v>-1103.23</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>55631.599888</v>
+        <v>55631.599887999997</v>
       </c>
       <c r="CD14" s="1">
         <v>15.453222</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.080000</v>
+        <v>2192.08</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1781.030000</v>
+        <v>-1781.03</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>55460.996418</v>
+        <v>55460.996418000002</v>
       </c>
       <c r="B15" s="1">
         <v>15.405832</v>
       </c>
       <c r="C15" s="1">
-        <v>1148.330000</v>
+        <v>1148.33</v>
       </c>
       <c r="D15" s="1">
-        <v>-254.147000</v>
+        <v>-254.14699999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>55471.425825</v>
+        <v>55471.425824999998</v>
       </c>
       <c r="G15" s="1">
-        <v>15.408729</v>
+        <v>15.408728999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1169.190000</v>
+        <v>1169.19</v>
       </c>
       <c r="I15" s="1">
-        <v>-213.510000</v>
+        <v>-213.51</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>55481.836824</v>
+        <v>55481.836823999998</v>
       </c>
       <c r="L15" s="1">
         <v>15.411621</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.610000</v>
+        <v>1195.6099999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-148.283000</v>
+        <v>-148.28299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>55492.702994</v>
+        <v>55492.702993999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>15.414640</v>
+        <v>15.41464</v>
       </c>
       <c r="R15" s="1">
-        <v>1202.950000</v>
+        <v>1202.95</v>
       </c>
       <c r="S15" s="1">
-        <v>-126.916000</v>
+        <v>-126.916</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>55503.204970</v>
+        <v>55503.204969999999</v>
       </c>
       <c r="V15" s="1">
         <v>15.417557</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.230000</v>
+        <v>1210.23</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.564000</v>
+        <v>-106.56399999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>55513.709244</v>
+        <v>55513.709243999998</v>
       </c>
       <c r="AA15" s="1">
         <v>15.420475</v>
       </c>
       <c r="AB15" s="1">
-        <v>1217.480000</v>
+        <v>1217.48</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.067000</v>
+        <v>-90.066999999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>55524.237358</v>
+        <v>55524.237357999998</v>
       </c>
       <c r="AF15" s="1">
         <v>15.423399</v>
       </c>
       <c r="AG15" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.943500</v>
+        <v>-85.9435</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>55534.771858</v>
@@ -3927,165 +4343,165 @@
         <v>15.426326</v>
       </c>
       <c r="AL15" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.722700</v>
+        <v>-89.722700000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>55545.235956</v>
+        <v>55545.235955999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>15.429232</v>
+        <v>15.429232000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1237.400000</v>
+        <v>1237.4000000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.029000</v>
+        <v>-102.029</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>55556.046758</v>
+        <v>55556.046757999997</v>
       </c>
       <c r="AU15" s="1">
         <v>15.432235</v>
       </c>
       <c r="AV15" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.740000</v>
+        <v>-121.74</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>55566.767782</v>
+        <v>55566.767782000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>15.435213</v>
+        <v>15.435212999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.463000</v>
+        <v>-139.46299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>55577.330584</v>
+        <v>55577.330584000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>15.438147</v>
+        <v>15.438147000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.170000</v>
+        <v>1297.17</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.998000</v>
+        <v>-221.99799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>55588.266874</v>
+        <v>55588.266874000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>15.441185</v>
+        <v>15.441185000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.920000</v>
+        <v>1367.92</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.738000</v>
+        <v>-358.738</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>55598.586141</v>
       </c>
       <c r="BO15" s="1">
-        <v>15.444052</v>
+        <v>15.444051999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.710000</v>
+        <v>1483.71</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.946000</v>
+        <v>-580.94600000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>55609.083500</v>
+        <v>55609.083500000001</v>
       </c>
       <c r="BT15" s="1">
         <v>15.446968</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.270000</v>
+        <v>1617.27</v>
       </c>
       <c r="BV15" s="1">
-        <v>-830.985000</v>
+        <v>-830.98500000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>55619.911137</v>
+        <v>55619.911137000003</v>
       </c>
       <c r="BY15" s="1">
         <v>15.449975</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.980000</v>
+        <v>1770.98</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1103.340000</v>
+        <v>-1103.3399999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>55632.117185</v>
+        <v>55632.117185000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>15.453366</v>
+        <v>15.453366000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>2190.580000</v>
+        <v>2190.58</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1783.630000</v>
+        <v>-1783.63</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>55461.335217</v>
       </c>
       <c r="B16" s="1">
-        <v>15.405926</v>
+        <v>15.405925999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1148.510000</v>
+        <v>1148.51</v>
       </c>
       <c r="D16" s="1">
-        <v>-254.007000</v>
+        <v>-254.00700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>55472.085476</v>
@@ -4094,118 +4510,118 @@
         <v>15.408913</v>
       </c>
       <c r="H16" s="1">
-        <v>1168.260000</v>
+        <v>1168.26</v>
       </c>
       <c r="I16" s="1">
-        <v>-213.674000</v>
+        <v>-213.67400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>55482.502490</v>
+        <v>55482.502489999999</v>
       </c>
       <c r="L16" s="1">
         <v>15.411806</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.350000</v>
+        <v>1195.3499999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-148.459000</v>
+        <v>-148.459</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>55493.090056</v>
+        <v>55493.090056000001</v>
       </c>
       <c r="Q16" s="1">
         <v>15.414747</v>
       </c>
       <c r="R16" s="1">
-        <v>1202.940000</v>
+        <v>1202.94</v>
       </c>
       <c r="S16" s="1">
-        <v>-126.935000</v>
+        <v>-126.935</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>55503.552006</v>
+        <v>55503.552005999998</v>
       </c>
       <c r="V16" s="1">
         <v>15.417653</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.260000</v>
+        <v>1210.26</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.623000</v>
+        <v>-106.623</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>55514.058923</v>
+        <v>55514.058922999997</v>
       </c>
       <c r="AA16" s="1">
         <v>15.420572</v>
       </c>
       <c r="AB16" s="1">
-        <v>1217.490000</v>
+        <v>1217.49</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.172100</v>
+        <v>-90.1721</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>55524.581549</v>
+        <v>55524.581549000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>15.423495</v>
+        <v>15.423495000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1222.240000</v>
+        <v>1222.24</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.905500</v>
+        <v>-85.905500000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>55535.119056</v>
+        <v>55535.119056000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>15.426422</v>
+        <v>15.426422000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1229.310000</v>
+        <v>1229.31</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.737000</v>
+        <v>-89.736999999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>55545.655115</v>
+        <v>55545.655115000001</v>
       </c>
       <c r="AP16" s="1">
         <v>15.429349</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.065000</v>
+        <v>-102.065</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>55556.355764</v>
@@ -4214,180 +4630,180 @@
         <v>15.432321</v>
       </c>
       <c r="AV16" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.759000</v>
+        <v>-121.759</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>55567.064921</v>
+        <v>55567.064920999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>15.435296</v>
+        <v>15.435295999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.454000</v>
+        <v>-139.45400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>55577.689687</v>
+        <v>55577.689686999998</v>
       </c>
       <c r="BE16" s="1">
         <v>15.438247</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.190000</v>
+        <v>1297.19</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.037000</v>
+        <v>-222.03700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>55588.643835</v>
+        <v>55588.643835000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>15.441290</v>
+        <v>15.44129</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.940000</v>
+        <v>1367.94</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.774000</v>
+        <v>-358.774</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>55598.984460</v>
+        <v>55598.98446</v>
       </c>
       <c r="BO16" s="1">
         <v>15.444162</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.620000</v>
+        <v>1483.62</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.980000</v>
+        <v>-580.98</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>55609.503087</v>
+        <v>55609.503086999997</v>
       </c>
       <c r="BT16" s="1">
         <v>15.447084</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.270000</v>
+        <v>1617.27</v>
       </c>
       <c r="BV16" s="1">
-        <v>-830.933000</v>
+        <v>-830.93299999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>55620.358353</v>
+        <v>55620.358353000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>15.450100</v>
+        <v>15.450100000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.880000</v>
+        <v>1770.88</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1103.110000</v>
+        <v>-1103.1099999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>55632.634511</v>
+        <v>55632.634510999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>15.453510</v>
+        <v>15.45351</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.600000</v>
+        <v>2192.6</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1785.220000</v>
+        <v>-1785.22</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>55461.990896</v>
+        <v>55461.990896000003</v>
       </c>
       <c r="B17" s="1">
-        <v>15.406109</v>
+        <v>15.406109000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1148.180000</v>
+        <v>1148.18</v>
       </c>
       <c r="D17" s="1">
-        <v>-254.038000</v>
+        <v>-254.03800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>55472.457474</v>
+        <v>55472.457474000003</v>
       </c>
       <c r="G17" s="1">
-        <v>15.409016</v>
+        <v>15.409015999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1169.310000</v>
+        <v>1169.31</v>
       </c>
       <c r="I17" s="1">
-        <v>-213.143000</v>
+        <v>-213.143</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>55482.873462</v>
+        <v>55482.873462000003</v>
       </c>
       <c r="L17" s="1">
         <v>15.411909</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.360000</v>
+        <v>1195.3599999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-148.401000</v>
+        <v>-148.40100000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>55493.438775</v>
+        <v>55493.438775000002</v>
       </c>
       <c r="Q17" s="1">
         <v>15.414844</v>
       </c>
       <c r="R17" s="1">
-        <v>1202.910000</v>
+        <v>1202.9100000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-126.856000</v>
+        <v>-126.85599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>55503.892453</v>
@@ -4396,148 +4812,148 @@
         <v>15.417748</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.020000</v>
+        <v>1210.02</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.522000</v>
+        <v>-106.52200000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>55514.406652</v>
+        <v>55514.406651999998</v>
       </c>
       <c r="AA17" s="1">
         <v>15.420669</v>
       </c>
       <c r="AB17" s="1">
-        <v>1217.600000</v>
+        <v>1217.5999999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.146700</v>
+        <v>-90.146699999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>55524.998226</v>
+        <v>55524.998226000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>15.423611</v>
+        <v>15.423610999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1222.180000</v>
+        <v>1222.18</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.971200</v>
+        <v>-85.971199999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>55535.547103</v>
+        <v>55535.547102999997</v>
       </c>
       <c r="AK17" s="1">
         <v>15.426541</v>
       </c>
       <c r="AL17" s="1">
-        <v>1229.300000</v>
+        <v>1229.3</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.746100</v>
+        <v>-89.746099999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>55545.957666</v>
+        <v>55545.957666000002</v>
       </c>
       <c r="AP17" s="1">
         <v>15.429433</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1237.400000</v>
+        <v>1237.4000000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>55556.722803</v>
+        <v>55556.722802999997</v>
       </c>
       <c r="AU17" s="1">
         <v>15.432423</v>
       </c>
       <c r="AV17" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.765000</v>
+        <v>-121.765</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>55567.424485</v>
+        <v>55567.424485000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>15.435396</v>
+        <v>15.435396000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.456000</v>
+        <v>-139.45599999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>55578.049287</v>
+        <v>55578.049287000002</v>
       </c>
       <c r="BE17" s="1">
         <v>15.438347</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.190000</v>
+        <v>1297.19</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.023000</v>
+        <v>-222.023</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>55589.017853</v>
+        <v>55589.017852999998</v>
       </c>
       <c r="BJ17" s="1">
-        <v>15.441394</v>
+        <v>15.441394000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.785000</v>
+        <v>-358.78500000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>55599.404043</v>
+        <v>55599.404043000002</v>
       </c>
       <c r="BO17" s="1">
         <v>15.444279</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.650000</v>
+        <v>1483.65</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.963000</v>
+        <v>-580.96299999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>55609.913773</v>
@@ -4546,60 +4962,60 @@
         <v>15.447198</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.170000</v>
+        <v>1617.17</v>
       </c>
       <c r="BV17" s="1">
-        <v>-830.965000</v>
+        <v>-830.96500000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>55620.782607</v>
+        <v>55620.782607000001</v>
       </c>
       <c r="BY17" s="1">
         <v>15.450217</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1771.020000</v>
+        <v>1771.02</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1103.170000</v>
+        <v>-1103.17</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>55633.156315</v>
       </c>
       <c r="CD17" s="1">
-        <v>15.453655</v>
+        <v>15.453654999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.870000</v>
+        <v>2192.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1783.750000</v>
+        <v>-1783.75</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>55462.360914</v>
+        <v>55462.360913999997</v>
       </c>
       <c r="B18" s="1">
-        <v>15.406211</v>
+        <v>15.406211000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.440000</v>
+        <v>1148.44</v>
       </c>
       <c r="D18" s="1">
-        <v>-253.822000</v>
+        <v>-253.822</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>55472.802227</v>
@@ -4608,512 +5024,512 @@
         <v>15.409112</v>
       </c>
       <c r="H18" s="1">
-        <v>1169.020000</v>
+        <v>1169.02</v>
       </c>
       <c r="I18" s="1">
-        <v>-212.846000</v>
+        <v>-212.846</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>55483.218212</v>
       </c>
       <c r="L18" s="1">
-        <v>15.412005</v>
+        <v>15.412005000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.340000</v>
+        <v>1195.3399999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-148.325000</v>
+        <v>-148.32499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>55493.788454</v>
+        <v>55493.788454000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>15.414941</v>
+        <v>15.414941000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1203.000000</v>
+        <v>1203</v>
       </c>
       <c r="S18" s="1">
-        <v>-126.867000</v>
+        <v>-126.867</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>55504.312536</v>
+        <v>55504.312535999998</v>
       </c>
       <c r="V18" s="1">
-        <v>15.417865</v>
+        <v>15.417865000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.070000</v>
+        <v>1210.07</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.483000</v>
+        <v>-106.483</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>55514.826271</v>
+        <v>55514.826270999998</v>
       </c>
       <c r="AA18" s="1">
         <v>15.420785</v>
       </c>
       <c r="AB18" s="1">
-        <v>1217.660000</v>
+        <v>1217.6600000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.093800</v>
+        <v>-90.093800000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>55525.289342</v>
+        <v>55525.289341999996</v>
       </c>
       <c r="AF18" s="1">
         <v>15.423691</v>
       </c>
       <c r="AG18" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.917500</v>
+        <v>-85.917500000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>55535.827375</v>
+        <v>55535.827375000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>15.426619</v>
+        <v>15.426619000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1229.340000</v>
+        <v>1229.3399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.721500</v>
+        <v>-89.721500000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>55546.319713</v>
+        <v>55546.319712999997</v>
       </c>
       <c r="AP18" s="1">
-        <v>15.429533</v>
+        <v>15.429532999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1237.390000</v>
+        <v>1237.3900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.039000</v>
+        <v>-102.039</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>55557.085411</v>
       </c>
       <c r="AU18" s="1">
-        <v>15.432524</v>
+        <v>15.432524000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.740000</v>
+        <v>-121.74</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>55567.784581</v>
       </c>
       <c r="AZ18" s="1">
-        <v>15.435496</v>
+        <v>15.435496000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.482000</v>
+        <v>-139.482</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>55578.773979</v>
+        <v>55578.773978999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>15.438548</v>
+        <v>15.438548000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.014000</v>
+        <v>-222.01400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>55589.766776</v>
+        <v>55589.766775999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>15.441602</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.900000</v>
+        <v>1367.9</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.752000</v>
+        <v>-358.75200000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>55599.800346</v>
+        <v>55599.800346000004</v>
       </c>
       <c r="BO18" s="1">
-        <v>15.444389</v>
+        <v>15.444388999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.700000</v>
+        <v>1483.7</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.999000</v>
+        <v>-580.99900000000002</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>55610.330940</v>
+        <v>55610.33094</v>
       </c>
       <c r="BT18" s="1">
         <v>15.447314</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.020000</v>
+        <v>1617.02</v>
       </c>
       <c r="BV18" s="1">
-        <v>-830.962000</v>
+        <v>-830.96199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>55621.205695</v>
+        <v>55621.205694999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>15.450335</v>
+        <v>15.450335000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.010000</v>
+        <v>1771.01</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1103.220000</v>
+        <v>-1103.22</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>55633.982637</v>
+        <v>55633.982637000001</v>
       </c>
       <c r="CD18" s="1">
         <v>15.453884</v>
       </c>
       <c r="CE18" s="1">
-        <v>2191.050000</v>
+        <v>2191.0500000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1782.780000</v>
+        <v>-1782.78</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>55462.705728</v>
+        <v>55462.705728000001</v>
       </c>
       <c r="B19" s="1">
         <v>15.406307</v>
       </c>
       <c r="C19" s="1">
-        <v>1148.390000</v>
+        <v>1148.3900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-253.992000</v>
+        <v>-253.99199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>55473.147409</v>
+        <v>55473.147408999997</v>
       </c>
       <c r="G19" s="1">
         <v>15.409208</v>
       </c>
       <c r="H19" s="1">
-        <v>1169.120000</v>
+        <v>1169.1199999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>-212.978000</v>
+        <v>-212.97800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>55483.563397</v>
+        <v>55483.563396999998</v>
       </c>
       <c r="L19" s="1">
         <v>15.412101</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.390000</v>
+        <v>1195.3900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.418000</v>
+        <v>-148.41800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>55494.216470</v>
+        <v>55494.216469999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>15.415060</v>
+        <v>15.41506</v>
       </c>
       <c r="R19" s="1">
-        <v>1202.970000</v>
+        <v>1202.97</v>
       </c>
       <c r="S19" s="1">
-        <v>-126.831000</v>
+        <v>-126.831</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>55504.585346</v>
       </c>
       <c r="V19" s="1">
-        <v>15.417940</v>
+        <v>15.41794</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.130000</v>
+        <v>1210.1300000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.589000</v>
+        <v>-106.589</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>55515.115404</v>
+        <v>55515.115403999996</v>
       </c>
       <c r="AA19" s="1">
-        <v>15.420865</v>
+        <v>15.420864999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1217.630000</v>
+        <v>1217.6300000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.132100</v>
+        <v>-90.132099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>55525.632574</v>
+        <v>55525.632574000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>15.423787</v>
+        <v>15.423787000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1222.160000</v>
+        <v>1222.1600000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.891200</v>
+        <v>-85.891199999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>55536.173588</v>
+        <v>55536.173587999998</v>
       </c>
       <c r="AK19" s="1">
         <v>15.426715</v>
       </c>
       <c r="AL19" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.745200</v>
+        <v>-89.745199999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>55546.679314</v>
+        <v>55546.679314000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>15.429633</v>
+        <v>15.429633000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.022000</v>
+        <v>-102.02200000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>55557.814993</v>
       </c>
       <c r="AU19" s="1">
-        <v>15.432726</v>
+        <v>15.432726000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.751000</v>
+        <v>-121.751</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>55568.500804</v>
+        <v>55568.500804000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>15.435695</v>
+        <v>15.435695000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.483000</v>
+        <v>-139.483</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>55579.160823</v>
+        <v>55579.160822999998</v>
       </c>
       <c r="BE19" s="1">
         <v>15.438656</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.006000</v>
+        <v>-222.006</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>55590.164567</v>
       </c>
       <c r="BJ19" s="1">
-        <v>15.441712</v>
+        <v>15.441712000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.762000</v>
+        <v>-358.762</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>55600.222939</v>
+        <v>55600.222938999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>15.444506</v>
+        <v>15.444506000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.660000</v>
+        <v>1483.66</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.976000</v>
+        <v>-580.976</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>55611.045179</v>
+        <v>55611.045179000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>15.447513</v>
+        <v>15.447513000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1616.880000</v>
+        <v>1616.88</v>
       </c>
       <c r="BV19" s="1">
-        <v>-831.000000</v>
+        <v>-831</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>55621.972044</v>
+        <v>55621.972044000002</v>
       </c>
       <c r="BY19" s="1">
         <v>15.450548</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.960000</v>
+        <v>1770.96</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1103.150000</v>
+        <v>-1103.1500000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>55634.192482</v>
+        <v>55634.192481999999</v>
       </c>
       <c r="CD19" s="1">
         <v>15.453942</v>
       </c>
       <c r="CE19" s="1">
-        <v>2191.040000</v>
+        <v>2191.04</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1785.180000</v>
+        <v>-1785.18</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>55463.046416</v>
+        <v>55463.046415999997</v>
       </c>
       <c r="B20" s="1">
         <v>15.406402</v>
       </c>
       <c r="C20" s="1">
-        <v>1148.480000</v>
+        <v>1148.48</v>
       </c>
       <c r="D20" s="1">
-        <v>-253.699000</v>
+        <v>-253.69900000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>55473.556611</v>
@@ -5122,315 +5538,315 @@
         <v>15.409321</v>
       </c>
       <c r="H20" s="1">
-        <v>1168.660000</v>
+        <v>1168.6600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-212.709000</v>
+        <v>-212.709</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>55483.976597</v>
+        <v>55483.976597000001</v>
       </c>
       <c r="L20" s="1">
-        <v>15.412216</v>
+        <v>15.412216000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.140000</v>
+        <v>1195.1400000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-148.256000</v>
+        <v>-148.256</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>55494.493237</v>
+        <v>55494.493237000002</v>
       </c>
       <c r="Q20" s="1">
         <v>15.415137</v>
       </c>
       <c r="R20" s="1">
-        <v>1203.050000</v>
+        <v>1203.05</v>
       </c>
       <c r="S20" s="1">
-        <v>-126.880000</v>
+        <v>-126.88</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>55504.927612</v>
+        <v>55504.927611999999</v>
       </c>
       <c r="V20" s="1">
         <v>15.418035</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.020000</v>
+        <v>1210.02</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.466000</v>
+        <v>-106.46599999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>55515.462107</v>
+        <v>55515.462106999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>15.420962</v>
+        <v>15.420961999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1217.500000</v>
+        <v>1217.5</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.139900</v>
+        <v>-90.139899999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>55525.977292</v>
+        <v>55525.977292000003</v>
       </c>
       <c r="AF20" s="1">
         <v>15.423883</v>
       </c>
       <c r="AG20" s="1">
-        <v>1222.170000</v>
+        <v>1222.17</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.938500</v>
+        <v>-85.938500000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>55536.524259</v>
+        <v>55536.524258999998</v>
       </c>
       <c r="AK20" s="1">
         <v>15.426812</v>
       </c>
       <c r="AL20" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.734100</v>
+        <v>-89.734099999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>55547.400000</v>
+        <v>55547.4</v>
       </c>
       <c r="AP20" s="1">
         <v>15.429833</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.042000</v>
+        <v>-102.042</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>55558.205842</v>
+        <v>55558.205842000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>15.432835</v>
+        <v>15.432835000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1247.560000</v>
+        <v>1247.56</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.758000</v>
+        <v>-121.758</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>55568.858450</v>
+        <v>55568.85845</v>
       </c>
       <c r="AZ20" s="1">
         <v>15.435794</v>
       </c>
       <c r="BA20" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.491000</v>
+        <v>-139.49100000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>55579.522902</v>
+        <v>55579.522901999997</v>
       </c>
       <c r="BE20" s="1">
         <v>15.438756</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.022000</v>
+        <v>-222.02199999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>55590.519703</v>
+        <v>55590.519702999998</v>
       </c>
       <c r="BJ20" s="1">
         <v>15.441811</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.950000</v>
+        <v>1367.95</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.764000</v>
+        <v>-358.76400000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>55600.922328</v>
+        <v>55600.922328000001</v>
       </c>
       <c r="BO20" s="1">
         <v>15.444701</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.948000</v>
+        <v>-580.94799999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>55611.184556</v>
       </c>
       <c r="BT20" s="1">
-        <v>15.447551</v>
+        <v>15.447551000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1616.830000</v>
+        <v>1616.83</v>
       </c>
       <c r="BV20" s="1">
-        <v>-830.923000</v>
+        <v>-830.923</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>55622.084108</v>
+        <v>55622.084108000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>15.450579</v>
+        <v>15.450578999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1770.910000</v>
+        <v>1770.91</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1103.180000</v>
+        <v>-1103.18</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>55634.709278</v>
+        <v>55634.709278000002</v>
       </c>
       <c r="CD20" s="1">
         <v>15.454086</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.870000</v>
+        <v>2190.87</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1784.950000</v>
+        <v>-1784.95</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>55463.468014</v>
+        <v>55463.468013999998</v>
       </c>
       <c r="B21" s="1">
-        <v>15.406519</v>
+        <v>15.406518999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>1148.310000</v>
+        <v>1148.31</v>
       </c>
       <c r="D21" s="1">
-        <v>-253.737000</v>
+        <v>-253.73699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>55473.836352</v>
+        <v>55473.836351999998</v>
       </c>
       <c r="G21" s="1">
-        <v>15.409399</v>
+        <v>15.409399000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1168.510000</v>
+        <v>1168.51</v>
       </c>
       <c r="I21" s="1">
-        <v>-213.240000</v>
+        <v>-213.24</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>55484.296979</v>
+        <v>55484.296978999999</v>
       </c>
       <c r="L21" s="1">
         <v>15.412305</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.470000</v>
+        <v>1195.47</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.485000</v>
+        <v>-148.48500000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>55494.846388</v>
+        <v>55494.846387999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>15.415235</v>
+        <v>15.415234999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1202.960000</v>
+        <v>1202.96</v>
       </c>
       <c r="S21" s="1">
-        <v>-126.866000</v>
+        <v>-126.866</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>55505.273319</v>
       </c>
       <c r="V21" s="1">
-        <v>15.418131</v>
+        <v>15.418131000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.240000</v>
+        <v>1210.24</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.596000</v>
+        <v>-106.596</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>55515.813274</v>
@@ -5439,103 +5855,103 @@
         <v>15.421059</v>
       </c>
       <c r="AB21" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.091200</v>
+        <v>-90.091200000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>55526.663260</v>
+        <v>55526.663260000001</v>
       </c>
       <c r="AF21" s="1">
         <v>15.424073</v>
       </c>
       <c r="AG21" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.966300</v>
+        <v>-85.966300000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>55537.221597</v>
+        <v>55537.221597000003</v>
       </c>
       <c r="AK21" s="1">
         <v>15.427006</v>
       </c>
       <c r="AL21" s="1">
-        <v>1229.340000</v>
+        <v>1229.3399999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.746500</v>
+        <v>-89.746499999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>55547.788367</v>
+        <v>55547.788367000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>15.429941</v>
+        <v>15.429940999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1237.360000</v>
+        <v>1237.3599999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.050000</v>
+        <v>-102.05</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>55558.570401</v>
+        <v>55558.570400999997</v>
       </c>
       <c r="AU21" s="1">
         <v>15.432936</v>
       </c>
       <c r="AV21" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.748000</v>
+        <v>-121.748</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>55569.219543</v>
+        <v>55569.219542999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>15.435894</v>
+        <v>15.435893999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.441000</v>
+        <v>-139.441</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>55580.194980</v>
+        <v>55580.19498</v>
       </c>
       <c r="BE21" s="1">
         <v>15.438943</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.016000</v>
+        <v>-222.01599999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>55590.975069</v>
@@ -5544,105 +5960,105 @@
         <v>15.441938</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.980000</v>
+        <v>1367.98</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.798000</v>
+        <v>-358.798</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>55601.037865</v>
+        <v>55601.037864999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>15.444733</v>
+        <v>15.444732999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.650000</v>
+        <v>1483.65</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-581.039000</v>
+        <v>-581.03899999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>55611.624970</v>
+        <v>55611.624969999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>15.447674</v>
+        <v>15.447673999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1616.840000</v>
+        <v>1616.84</v>
       </c>
       <c r="BV21" s="1">
-        <v>-831.017000</v>
+        <v>-831.01700000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>55622.524060</v>
+        <v>55622.524060000003</v>
       </c>
       <c r="BY21" s="1">
         <v>15.450701</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1771.030000</v>
+        <v>1771.03</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1103.240000</v>
+        <v>-1103.24</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>55635.257358</v>
+        <v>55635.257358000003</v>
       </c>
       <c r="CD21" s="1">
         <v>15.454238</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.760000</v>
+        <v>2190.7600000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1783.470000</v>
+        <v>-1783.47</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>55463.746274</v>
+        <v>55463.746273999997</v>
       </c>
       <c r="B22" s="1">
         <v>15.406596</v>
       </c>
       <c r="C22" s="1">
-        <v>1148.470000</v>
+        <v>1148.47</v>
       </c>
       <c r="D22" s="1">
-        <v>-253.921000</v>
+        <v>-253.92099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>55474.180080</v>
+        <v>55474.180079999998</v>
       </c>
       <c r="G22" s="1">
         <v>15.409494</v>
       </c>
       <c r="H22" s="1">
-        <v>1168.390000</v>
+        <v>1168.3900000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-213.355000</v>
+        <v>-213.35499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>55484.664547</v>
@@ -5651,345 +6067,345 @@
         <v>15.412407</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.380000</v>
+        <v>1195.3800000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-148.271000</v>
+        <v>-148.27099999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>55495.192632</v>
+        <v>55495.192631999998</v>
       </c>
       <c r="Q22" s="1">
         <v>15.415331</v>
       </c>
       <c r="R22" s="1">
-        <v>1203.000000</v>
+        <v>1203</v>
       </c>
       <c r="S22" s="1">
-        <v>-126.900000</v>
+        <v>-126.9</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>55505.958758</v>
+        <v>55505.958758000001</v>
       </c>
       <c r="V22" s="1">
         <v>15.418322</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.090000</v>
+        <v>1210.0899999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.508000</v>
+        <v>-106.508</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>55516.507176</v>
+        <v>55516.507175999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>15.421252</v>
+        <v>15.421252000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1217.600000</v>
+        <v>1217.5999999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.082000</v>
+        <v>-90.081999999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>55527.007515</v>
+        <v>55527.007514999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>15.424169</v>
+        <v>15.424168999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1222.210000</v>
+        <v>1222.21</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.948100</v>
+        <v>-85.948099999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>55537.569788</v>
+        <v>55537.569788000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>15.427103</v>
+        <v>15.427103000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1229.320000</v>
+        <v>1229.32</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.734200</v>
+        <v>-89.734200000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>55548.148025</v>
+        <v>55548.148025000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>15.430041</v>
+        <v>15.430040999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.061000</v>
+        <v>-102.06100000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>55559.238018</v>
+        <v>55559.238017999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>15.433122</v>
+        <v>15.433121999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1247.590000</v>
+        <v>1247.5899999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.752000</v>
+        <v>-121.752</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>55569.890640</v>
+        <v>55569.890639999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>15.436081</v>
       </c>
       <c r="BA22" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.510000</v>
+        <v>-139.51</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>55580.638901</v>
+        <v>55580.638900999998</v>
       </c>
       <c r="BE22" s="1">
         <v>15.439066</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.001000</v>
+        <v>-222.001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>55591.279109</v>
+        <v>55591.279109000003</v>
       </c>
       <c r="BJ22" s="1">
         <v>15.442022</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.930000</v>
+        <v>1367.93</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.740000</v>
+        <v>-358.74</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>55601.461977</v>
+        <v>55601.461976999999</v>
       </c>
       <c r="BO22" s="1">
         <v>15.444851</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.640000</v>
+        <v>1483.64</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.953000</v>
+        <v>-580.95299999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>55612.048088</v>
+        <v>55612.048088000003</v>
       </c>
       <c r="BT22" s="1">
         <v>15.447791</v>
       </c>
       <c r="BU22" s="1">
-        <v>1616.720000</v>
+        <v>1616.72</v>
       </c>
       <c r="BV22" s="1">
-        <v>-831.083000</v>
+        <v>-831.08299999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>55622.946192</v>
+        <v>55622.946192000003</v>
       </c>
       <c r="BY22" s="1">
         <v>15.450818</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1771.080000</v>
+        <v>1771.08</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1103.140000</v>
+        <v>-1103.1400000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>55635.788570</v>
+        <v>55635.788569999997</v>
       </c>
       <c r="CD22" s="1">
         <v>15.454386</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.170000</v>
+        <v>2192.17</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1783.910000</v>
+        <v>-1783.91</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>55464.090494</v>
+        <v>55464.090493999996</v>
       </c>
       <c r="B23" s="1">
         <v>15.406692</v>
       </c>
       <c r="C23" s="1">
-        <v>1148.450000</v>
+        <v>1148.45</v>
       </c>
       <c r="D23" s="1">
-        <v>-253.989000</v>
+        <v>-253.989</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>55474.525296</v>
       </c>
       <c r="G23" s="1">
-        <v>15.409590</v>
+        <v>15.40959</v>
       </c>
       <c r="H23" s="1">
-        <v>1168.600000</v>
+        <v>1168.5999999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-212.765000</v>
+        <v>-212.76499999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>55485.352005</v>
+        <v>55485.352005000001</v>
       </c>
       <c r="L23" s="1">
-        <v>15.412598</v>
+        <v>15.412597999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.350000</v>
+        <v>1195.3499999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-148.335000</v>
+        <v>-148.33500000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>55495.890964</v>
+        <v>55495.890963999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>15.415525</v>
+        <v>15.415525000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1202.930000</v>
+        <v>1202.93</v>
       </c>
       <c r="S23" s="1">
-        <v>-126.779000</v>
+        <v>-126.779</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>55506.301842</v>
+        <v>55506.301842000001</v>
       </c>
       <c r="V23" s="1">
         <v>15.418417</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.260000</v>
+        <v>1210.26</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.504000</v>
+        <v>-106.504</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>55516.858345</v>
+        <v>55516.858345000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>15.421350</v>
+        <v>15.42135</v>
       </c>
       <c r="AB23" s="1">
-        <v>1217.560000</v>
+        <v>1217.56</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.032800</v>
+        <v>-90.032799999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>55527.351211</v>
+        <v>55527.351211000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>15.424264</v>
+        <v>15.424264000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.960800</v>
+        <v>-85.960800000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>55538.227980</v>
+        <v>55538.227980000003</v>
       </c>
       <c r="AK23" s="1">
         <v>15.427286</v>
       </c>
       <c r="AL23" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.714400</v>
+        <v>-89.714399999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>55548.817595</v>
@@ -5998,240 +6414,240 @@
         <v>15.430227</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1237.370000</v>
+        <v>1237.3699999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.039000</v>
+        <v>-102.039</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>55559.696321</v>
+        <v>55559.696321000003</v>
       </c>
       <c r="AU23" s="1">
         <v>15.433249</v>
       </c>
       <c r="AV23" s="1">
-        <v>1247.550000</v>
+        <v>1247.55</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.744000</v>
+        <v>-121.744</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>55570.293345</v>
+        <v>55570.293344999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>15.436193</v>
+        <v>15.436192999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.482000</v>
+        <v>-139.482</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>55581.003460</v>
+        <v>55581.00346</v>
       </c>
       <c r="BE23" s="1">
         <v>15.439168</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.022000</v>
+        <v>-222.02199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>55591.665478</v>
+        <v>55591.665478000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>15.442129</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.920000</v>
+        <v>1367.92</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.758000</v>
+        <v>-358.75799999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>55601.859957</v>
+        <v>55601.859957000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>15.444961</v>
+        <v>15.444960999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.660000</v>
+        <v>1483.66</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.995000</v>
+        <v>-580.995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>55612.475800</v>
+        <v>55612.4758</v>
       </c>
       <c r="BT23" s="1">
-        <v>15.447910</v>
+        <v>15.44791</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.740000</v>
+        <v>1616.74</v>
       </c>
       <c r="BV23" s="1">
-        <v>-831.217000</v>
+        <v>-831.21699999999998</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>55623.368779</v>
+        <v>55623.368778999997</v>
       </c>
       <c r="BY23" s="1">
         <v>15.450936</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1103.340000</v>
+        <v>-1103.3399999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>55636.304906</v>
+        <v>55636.304905999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>15.454529</v>
+        <v>15.454529000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.380000</v>
+        <v>2193.38</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1781.650000</v>
+        <v>-1781.65</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>55464.429229</v>
+        <v>55464.429229000001</v>
       </c>
       <c r="B24" s="1">
         <v>15.406786</v>
       </c>
       <c r="C24" s="1">
-        <v>1148.390000</v>
+        <v>1148.3900000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-253.930000</v>
+        <v>-253.93</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>55475.218207</v>
+        <v>55475.218206999998</v>
       </c>
       <c r="G24" s="1">
-        <v>15.409783</v>
+        <v>15.409782999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1168.490000</v>
+        <v>1168.49</v>
       </c>
       <c r="I24" s="1">
-        <v>-212.487000</v>
+        <v>-212.48699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>55485.700161</v>
+        <v>55485.700161000001</v>
       </c>
       <c r="L24" s="1">
         <v>15.412694</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.550000</v>
+        <v>1195.55</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.236000</v>
+        <v>-148.23599999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>55496.229760</v>
+        <v>55496.229760000002</v>
       </c>
       <c r="Q24" s="1">
         <v>15.415619</v>
       </c>
       <c r="R24" s="1">
-        <v>1202.970000</v>
+        <v>1202.97</v>
       </c>
       <c r="S24" s="1">
-        <v>-126.839000</v>
+        <v>-126.839</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>55506.644727</v>
+        <v>55506.644726999999</v>
       </c>
       <c r="V24" s="1">
         <v>15.418512</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.000000</v>
+        <v>1210</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.586000</v>
+        <v>-106.586</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>55517.207559</v>
+        <v>55517.207559000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>15.421447</v>
+        <v>15.421447000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1217.590000</v>
+        <v>1217.5899999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.156400</v>
+        <v>-90.156400000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>55528.006955</v>
+        <v>55528.006954999997</v>
       </c>
       <c r="AF24" s="1">
         <v>15.424446</v>
       </c>
       <c r="AG24" s="1">
-        <v>1222.190000</v>
+        <v>1222.19</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.952000</v>
+        <v>-85.951999999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>55538.615693</v>
@@ -6240,133 +6656,133 @@
         <v>15.427393</v>
       </c>
       <c r="AL24" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.695000</v>
+        <v>-89.694999999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>55549.254046</v>
+        <v>55549.254046000002</v>
       </c>
       <c r="AP24" s="1">
         <v>15.430348</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>55560.063733</v>
+        <v>55560.063733000003</v>
       </c>
       <c r="AU24" s="1">
         <v>15.433351</v>
       </c>
       <c r="AV24" s="1">
-        <v>1247.580000</v>
+        <v>1247.58</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.750000</v>
+        <v>-121.75</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>55570.680226</v>
+        <v>55570.680225999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>15.436300</v>
+        <v>15.436299999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1256.210000</v>
+        <v>1256.21</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.470000</v>
+        <v>-139.47</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>55581.364547</v>
+        <v>55581.364546999997</v>
       </c>
       <c r="BE24" s="1">
         <v>15.439268</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.190000</v>
+        <v>1297.19</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.995000</v>
+        <v>-221.995</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>55592.100948</v>
+        <v>55592.100947999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>15.442250</v>
+        <v>15.44225</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.910000</v>
+        <v>1367.91</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.778000</v>
+        <v>-358.77800000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>55602.280344</v>
+        <v>55602.280343999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>15.445078</v>
+        <v>15.445078000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.630000</v>
+        <v>1483.63</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.925000</v>
+        <v>-580.92499999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>55612.892277</v>
+        <v>55612.892276999999</v>
       </c>
       <c r="BT24" s="1">
         <v>15.448026</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.560000</v>
+        <v>1616.56</v>
       </c>
       <c r="BV24" s="1">
-        <v>-831.211000</v>
+        <v>-831.21100000000001</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>55623.793818</v>
+        <v>55623.793817999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>15.451054</v>
+        <v>15.451053999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1771.020000</v>
+        <v>1771.02</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1103.170000</v>
+        <v>-1103.17</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>55636.824255</v>
@@ -6375,529 +6791,530 @@
         <v>15.454673</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.020000</v>
+        <v>2191.02</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1781.120000</v>
+        <v>-1781.12</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>55465.111269</v>
+        <v>55465.111269000001</v>
       </c>
       <c r="B25" s="1">
-        <v>15.406975</v>
+        <v>15.406974999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.560000</v>
+        <v>1148.56</v>
       </c>
       <c r="D25" s="1">
-        <v>-253.996000</v>
+        <v>-253.99600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>55475.560448</v>
+        <v>55475.560447999997</v>
       </c>
       <c r="G25" s="1">
-        <v>15.409878</v>
+        <v>15.409878000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1168.900000</v>
+        <v>1168.9000000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-212.631000</v>
+        <v>-212.631</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>55486.046864</v>
+        <v>55486.046864000004</v>
       </c>
       <c r="L25" s="1">
         <v>15.412791</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.460000</v>
+        <v>1195.46</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.292000</v>
+        <v>-148.292</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>55496.586883</v>
+        <v>55496.586883000004</v>
       </c>
       <c r="Q25" s="1">
-        <v>15.415719</v>
+        <v>15.415718999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1203.020000</v>
+        <v>1203.02</v>
       </c>
       <c r="S25" s="1">
-        <v>-126.813000</v>
+        <v>-126.813</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>55507.304934</v>
       </c>
       <c r="V25" s="1">
-        <v>15.418696</v>
+        <v>15.418696000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.170000</v>
+        <v>1210.17</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.532000</v>
+        <v>-106.532</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>55517.880140</v>
+        <v>55517.880140000001</v>
       </c>
       <c r="AA25" s="1">
         <v>15.421633</v>
       </c>
       <c r="AB25" s="1">
-        <v>1217.490000</v>
+        <v>1217.49</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.016200</v>
+        <v>-90.016199999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>55528.383234</v>
+        <v>55528.383234000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>15.424551</v>
+        <v>15.424550999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1222.200000</v>
+        <v>1222.2</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.952300</v>
+        <v>-85.952299999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>55538.961595</v>
+        <v>55538.961595000001</v>
       </c>
       <c r="AK25" s="1">
         <v>15.427489</v>
       </c>
       <c r="AL25" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.729900</v>
+        <v>-89.729900000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>55549.616126</v>
+        <v>55549.616126000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>15.430449</v>
+        <v>15.430448999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.049000</v>
+        <v>-102.04900000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>55560.426430</v>
+        <v>55560.42643</v>
       </c>
       <c r="AU25" s="1">
-        <v>15.433452</v>
+        <v>15.433452000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1247.570000</v>
+        <v>1247.57</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.755000</v>
+        <v>-121.755</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>55571.040320</v>
+        <v>55571.04032</v>
       </c>
       <c r="AZ25" s="1">
-        <v>15.436400</v>
+        <v>15.436400000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1256.190000</v>
+        <v>1256.19</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.446000</v>
+        <v>-139.446</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>55581.788627</v>
+        <v>55581.788627000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>15.439386</v>
+        <v>15.439386000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.180000</v>
+        <v>1297.18</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.004000</v>
+        <v>-222.00399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>55592.415446</v>
+        <v>55592.415445999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>15.442338</v>
+        <v>15.442337999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.920000</v>
+        <v>1367.92</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.778000</v>
+        <v>-358.77800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>55602.680614</v>
+        <v>55602.680613999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>15.445189</v>
+        <v>15.445188999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.994000</v>
+        <v>-580.99400000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>55613.319800</v>
+        <v>55613.319799999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>15.448144</v>
+        <v>15.448143999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.600000</v>
+        <v>1616.6</v>
       </c>
       <c r="BV25" s="1">
-        <v>-831.353000</v>
+        <v>-831.35299999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>55624.211947</v>
+        <v>55624.211947000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>15.451170</v>
+        <v>15.451169999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1103.340000</v>
+        <v>-1103.3399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>55637.343032</v>
+        <v>55637.343031999997</v>
       </c>
       <c r="CD25" s="1">
         <v>15.454818</v>
       </c>
       <c r="CE25" s="1">
-        <v>2191.200000</v>
+        <v>2191.1999999999998</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1780.270000</v>
+        <v>-1780.27</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>55465.453499</v>
+        <v>55465.453499000003</v>
       </c>
       <c r="B26" s="1">
-        <v>15.407070</v>
+        <v>15.407069999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1148.530000</v>
+        <v>1148.53</v>
       </c>
       <c r="D26" s="1">
-        <v>-253.962000</v>
+        <v>-253.96199999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>55475.906159</v>
+        <v>55475.906158999998</v>
       </c>
       <c r="G26" s="1">
         <v>15.409974</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.630000</v>
+        <v>1169.6300000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-213.200000</v>
+        <v>-213.2</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>55486.704597</v>
+        <v>55486.704597000004</v>
       </c>
       <c r="L26" s="1">
-        <v>15.412973</v>
+        <v>15.412972999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.330000</v>
+        <v>1195.33</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.620000</v>
+        <v>-148.62</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>55497.243555</v>
+        <v>55497.243555000001</v>
       </c>
       <c r="Q26" s="1">
         <v>15.415901</v>
       </c>
       <c r="R26" s="1">
-        <v>1202.940000</v>
+        <v>1202.94</v>
       </c>
       <c r="S26" s="1">
-        <v>-126.876000</v>
+        <v>-126.876</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>55507.676436</v>
+        <v>55507.676436000002</v>
       </c>
       <c r="V26" s="1">
         <v>15.418799</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.280000</v>
+        <v>1210.28</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.595000</v>
+        <v>-106.595</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>55518.253591</v>
+        <v>55518.253591000001</v>
       </c>
       <c r="AA26" s="1">
         <v>15.421737</v>
       </c>
       <c r="AB26" s="1">
-        <v>1217.550000</v>
+        <v>1217.55</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.192000</v>
+        <v>-90.191999999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>55528.727145</v>
+        <v>55528.727144999997</v>
       </c>
       <c r="AF26" s="1">
-        <v>15.424646</v>
+        <v>15.424645999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1222.220000</v>
+        <v>1222.22</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.949100</v>
+        <v>-85.949100000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>55539.312236</v>
+        <v>55539.312235999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>15.427587</v>
+        <v>15.427587000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1229.330000</v>
+        <v>1229.33</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.743500</v>
+        <v>-89.743499999999997</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>55549.975724</v>
+        <v>55549.975724000004</v>
       </c>
       <c r="AP26" s="1">
-        <v>15.430549</v>
+        <v>15.430548999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1237.380000</v>
+        <v>1237.3800000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.044000</v>
+        <v>-102.044</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>55560.855967</v>
+        <v>55560.855967000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>15.433571</v>
+        <v>15.433571000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1247.590000</v>
+        <v>1247.5899999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.769000</v>
+        <v>-121.76900000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>55571.453983</v>
+        <v>55571.453982999999</v>
       </c>
       <c r="AZ26" s="1">
         <v>15.436515</v>
       </c>
       <c r="BA26" s="1">
-        <v>1256.200000</v>
+        <v>1256.2</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.489000</v>
+        <v>-139.489</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>55582.086226</v>
+        <v>55582.086225999999</v>
       </c>
       <c r="BE26" s="1">
         <v>15.439468</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.210000</v>
+        <v>1297.21</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.011000</v>
+        <v>-222.011</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>55592.794053</v>
+        <v>55592.794052999998</v>
       </c>
       <c r="BJ26" s="1">
-        <v>15.442443</v>
+        <v>15.442443000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.900000</v>
+        <v>1367.9</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.761000</v>
+        <v>-358.76100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>55603.100726</v>
+        <v>55603.100725999997</v>
       </c>
       <c r="BO26" s="1">
         <v>15.445306</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.670000</v>
+        <v>1483.67</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-581.011000</v>
+        <v>-581.01099999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>55613.734456</v>
+        <v>55613.734455999998</v>
       </c>
       <c r="BT26" s="1">
-        <v>15.448260</v>
+        <v>15.448259999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.630000</v>
+        <v>1616.63</v>
       </c>
       <c r="BV26" s="1">
-        <v>-831.445000</v>
+        <v>-831.44500000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>55624.655866</v>
+        <v>55624.655866000001</v>
       </c>
       <c r="BY26" s="1">
         <v>15.451293</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.960000</v>
+        <v>1770.96</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1103.100000</v>
+        <v>-1103.0999999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>55637.894584</v>
+        <v>55637.894584000001</v>
       </c>
       <c r="CD26" s="1">
         <v>15.454971</v>
       </c>
       <c r="CE26" s="1">
-        <v>2192.530000</v>
+        <v>2192.5300000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1780.010000</v>
+        <v>-1780.01</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>